--- a/Archivos de proyecto/Catalogos originales/beneficiarios.xlsx
+++ b/Archivos de proyecto/Catalogos originales/beneficiarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>CURP</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>DAVID</t>
   </si>
   <si>
     <t>IGNACIO ALVAREZ</t>
@@ -356,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,22 +918,22 @@
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -968,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>38</v>
@@ -1040,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="5">
@@ -1060,9 +1057,7 @@
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
@@ -1085,10 +1080,10 @@
         <v>123</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>38</v>
@@ -1157,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="5">
@@ -1202,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>38</v>
@@ -1274,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="5">
@@ -1319,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>38</v>
@@ -1391,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="5">
@@ -1421,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -1436,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>38</v>
@@ -1508,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="5">
@@ -1553,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>38</v>
@@ -1625,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="5">
@@ -1651,9 +1646,7 @@
       <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1661,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5">
         <v>475</v>
@@ -1670,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="5">
         <v>2</v>
@@ -1742,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="5">
@@ -1760,16 +1753,16 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -1778,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5">
         <v>7</v>
@@ -1787,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="5">
         <v>2</v>
@@ -1859,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="5">
@@ -1877,16 +1870,16 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -1895,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="5">
         <v>7</v>
@@ -1904,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="5">
         <v>2</v>
@@ -1976,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="5">
